--- a/NEW HR/DONE/MARASIGAN, ARIEL.xlsx
+++ b/NEW HR/DONE/MARASIGAN, ARIEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A71B0-FF82-42BB-8F37-6DDDF73CED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B953766-B2D0-422C-8D1A-427A5B79FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>6/19-23/2023</t>
+  </si>
+  <si>
+    <t>MAHOGANY MARKET</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,15 +590,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -605,17 +602,29 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3253,8 +3262,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane ySplit="3384" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3284,14 +3293,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3302,14 +3311,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3322,14 +3331,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3355,18 +3366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3413,7 +3424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3423,7 +3434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4885,13 +4896,15 @@
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4903,13 +4916,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4921,13 +4936,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4939,13 +4956,15 @@
         <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4957,13 +4976,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4974,7 +4995,9 @@
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -4986,7 +5009,9 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="61">
+        <v>45280</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
@@ -5820,17 +5845,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5868,7 +5893,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3108" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5899,14 +5924,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5920,17 +5945,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5944,17 +5969,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="50"/>
+        <v>MAHOGANY MARKET</v>
+      </c>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5980,18 +6005,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
